--- a/spares.xlsx
+++ b/spares.xlsx
@@ -2,25 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11835" windowWidth="21600" xWindow="5220" yWindow="4605"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="updated" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="updated1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="updated2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="updated3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="updated4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
     <font>
       <b val="1"/>
     </font>
@@ -30,15 +45,30 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -52,18 +82,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -356,15 +388,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.42578125" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" ht="15.75" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Serial Number</t>
@@ -385,8 +417,38 @@
           <t>Ship Date</t>
         </is>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>9ybvsy1</t>
@@ -397,36 +459,186 @@
           <t>LB-Spare-L002</t>
         </is>
       </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>5v6wgv1</t>
         </is>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>jp84lv1</t>
         </is>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>9zbvsy1</t>
         </is>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>f30vw1</t>
         </is>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>js0nq22</t>
@@ -437,15 +649,75 @@
           <t>LB-400D-015</t>
         </is>
       </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>3x7c9y1</t>
         </is>
       </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>10yc9y1</t>
@@ -456,8 +728,38 @@
           <t>LB-208A-005</t>
         </is>
       </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>8n0l282</t>
@@ -468,15 +770,75 @@
           <t>LB-208A-007</t>
         </is>
       </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>8n14282</t>
         </is>
       </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>8n0j282</t>
@@ -487,8 +849,38 @@
           <t>LB-208A-003</t>
         </is>
       </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>8n0k282</t>
@@ -499,8 +891,38 @@
           <t>LB-208A-004</t>
         </is>
       </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>6wbn382</t>
@@ -511,8 +933,38 @@
           <t>LB-208A-002</t>
         </is>
       </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>8n1f282</t>
@@ -523,8 +975,38 @@
           <t>LB-208A-008</t>
         </is>
       </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>8n0g282</t>
@@ -535,8 +1017,38 @@
           <t>LB-208A-001</t>
         </is>
       </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>8n13282</t>
@@ -545,6 +1057,36 @@
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>LB-208A-006</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Attic</t>
         </is>
       </c>
     </row>
@@ -559,7 +1101,998 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Host Name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Ship Date</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9YBVSY1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LB-Spare-L002</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5V6WGV1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08/18/2012</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XPS 14 L421X </t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JP84LV1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6530 </t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9ZBVSY1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F30VW1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JS0NQ22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LB-400D-015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12/04/2014</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3X7C9Y1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10YC9Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LB-208A-005</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8N0L282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LB-208A-007</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8N14282</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8N0J282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LB-208A-003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8N0K282</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LB-208A-004</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6WBN382</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LB-208A-002</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01/29/2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8N1F282</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LB-208A-008</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8N0G282</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LB-208A-001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8N13282</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LB-208A-006</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Spare</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,34 +2101,2722 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Serial Number</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Host Name</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Device Name</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Ship Date</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9YBVSY1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LB-Spare-L002</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5V6WGV1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08/18/2012</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XPS 14 L421X </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JP84LV1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6530 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9ZBVSY1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F30VW1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JS0NQ22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LB-400D-015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12/04/2014</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9030 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3X7C9Y1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10YC9Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LB-208A-005</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8N0L282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LB-208A-007</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8N14282</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8N0J282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LB-208A-003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8N0K282</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LB-208A-004</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6WBN382</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LB-208A-002</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01/29/2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8N1F282</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LB-208A-008</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8N0G282</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LB-208A-001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8N13282</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LB-208A-006</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dell Desktop</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Host Name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Ship Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9YBVSY1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LB-Spare-L002</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5V6WGV1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08/18/2012</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XPS 14 L421X </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JP84LV1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6530 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9ZBVSY1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F30VW1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JS0NQ22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LB-400D-015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12/04/2014</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9030 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3X7C9Y1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10YC9Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LB-208A-005</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8N0L282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LB-208A-007</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8N14282</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8N0J282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LB-208A-003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8N0K282</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LB-208A-004</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6WBN382</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LB-208A-002</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01/29/2016</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8N1F282</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LB-208A-008</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8N0G282</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LB-208A-001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8N13282</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LB-208A-006</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Host Name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Ship Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9YBVSY1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LB-Spare-L002</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5V6WGV1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08/18/2012</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XPS 14 L421X </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JP84LV1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10/12/2012</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6530 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9ZBVSY1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latitude E6540 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F30VW1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JS0NQ22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LB-400D-015</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12/04/2014</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9030 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3X7C9Y1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10YC9Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LB-208A-005</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 9020 All In One </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8N0L282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LB-208A-007</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8N14282</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8N0J282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LB-208A-003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8N0K282</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LB-208A-004</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6WBN382</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LB-208A-002</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>01/29/2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8N1F282</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LB-208A-008</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8N0G282</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LB-208A-001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8N13282</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LB-208A-006</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OptiPlex 7440 AIO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Host Name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Ship Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -611,17 +4832,43 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10/17/13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t xml:space="preserve">Latitude E6540 </t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -633,17 +4880,43 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08/18/12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+          <t>08/18/2012</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t xml:space="preserve">XPS 14 L421X </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,17 +4928,43 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10/12/12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+          <t>10/12/2012</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t xml:space="preserve">Latitude E6530 </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -677,17 +4976,43 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10/17/13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+          <t>10/17/2013</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t xml:space="preserve">Latitude E6540 </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -698,10 +5023,40 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -717,17 +5072,47 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12/04/14</t>
+          <t>12/04/2014</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 9030 All In One </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -739,17 +5124,47 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08/30/13</t>
+          <t>08/30/2013</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 9020 All In One </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -765,17 +5180,43 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08/30/13</t>
+          <t>08/30/2013</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">OptiPlex 9020 All In One </t>
-        </is>
-      </c>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -791,17 +5232,47 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -813,17 +5284,47 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -839,17 +5340,47 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -865,17 +5396,47 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -891,17 +5452,47 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01/29/16</t>
+          <t>01/29/2016</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -917,17 +5508,47 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -943,17 +5564,47 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,10 +5620,40 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12/22/15</t>
+          <t>12/22/2015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>Desktop</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Area Computing Services</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Gorgas</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Attic</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t xml:space="preserve">OptiPlex 7440 AIO </t>
         </is>
